--- a/tables/StatsPerParam_AllGroups.xlsx
+++ b/tables/StatsPerParam_AllGroups.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t xml:space="preserve">Climate</t>
   </si>
@@ -56,778 +56,907 @@
     <t xml:space="preserve">intrcpt</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3518</t>
+    <t xml:space="preserve"> 0.079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5016</t>
   </si>
   <si>
     <t xml:space="preserve">WeathQ2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.148</t>
+    <t xml:space="preserve"> 0.162</t>
   </si>
   <si>
     <t xml:space="preserve">0.114</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.076</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1104</t>
+    <t xml:space="preserve">-0.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1323</t>
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2824</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4858</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.366</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.196</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6780</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7544</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.278</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.066</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.093</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1048</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.666</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.060</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
+    <t xml:space="preserve">0.130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.380</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0596</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4951</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.020</t>
   </si>
   <si>
-    <t xml:space="preserve">0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.040</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4527</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6506</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.186</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6374</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.173</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.158</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.366</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.871</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.080</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6370</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7638</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.278</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.347</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9150</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.045</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.069</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1332</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.095</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.380</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0070</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0596</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.057</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5487</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.026</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.032</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 0.071</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7592</t>
+    <t xml:space="preserve">  0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.015</t>
   </si>
   <si>
     <t xml:space="preserve">0.039</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.065</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8379</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.010</t>
+    <t xml:space="preserve"> 0.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7730</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.009</t>
   </si>
   <si>
     <t xml:space="preserve">  0.06</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8060</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4438</t>
+    <t xml:space="preserve">0.8093</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4534</t>
   </si>
   <si>
     <t xml:space="preserve">-0.043</t>
@@ -842,10 +971,7 @@
     <t xml:space="preserve"> 0.112</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5874</t>
+    <t xml:space="preserve">0.5853</t>
   </si>
 </sst>
 </file>
@@ -1424,28 +1550,28 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1457,28 +1583,28 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -1490,22 +1616,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>65</v>
@@ -1523,28 +1649,28 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1556,10 +1682,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -1589,10 +1715,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>80</v>
@@ -1622,13 +1748,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>87</v>
@@ -1652,31 +1778,31 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="K14" s="6"/>
     </row>
@@ -1685,31 +1811,31 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -1718,22 +1844,22 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>105</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>107</v>
@@ -1751,31 +1877,31 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1784,31 +1910,31 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="6"/>
     </row>
@@ -1817,31 +1943,31 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -1850,31 +1976,31 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -1883,31 +2009,31 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -1916,25 +2042,25 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>141</v>
@@ -1949,10 +2075,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1973,7 +2099,7 @@
         <v>147</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -1982,22 +2108,22 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>151</v>
@@ -2015,46 +2141,46 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>160</v>
@@ -2078,16 +2204,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>166</v>
@@ -2102,64 +2228,64 @@
         <v>169</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>178</v>
@@ -2177,475 +2303,475 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="J31" s="2" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="K31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="K34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K35" s="6"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="K37" s="6"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K38" s="6"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="K40" s="6"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="I41" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="J41" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="K41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="I42" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="K42" s="6"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="K43" s="6"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2654,186 +2780,450 @@
         <v>249</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K45" s="6"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K46" s="6"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K47" s="6"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K48" s="6"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="E49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I49" s="5" t="s">
+      <c r="E50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K49" s="6"/>
+      <c r="J50" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>287</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>291</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>307</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>310</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K57" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
